--- a/words.xlsx
+++ b/words.xlsx
@@ -5,27 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84982\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84982\Desktop\quizlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC8952E-42CE-4EE9-951C-7A2EADB49886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75BCC50-20BF-43FA-97E1-76DF9DEB2EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="895" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="895" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University-Life" sheetId="2" r:id="rId1"/>
-    <sheet name="Geography" sheetId="12" r:id="rId2"/>
-    <sheet name="Economy-Market" sheetId="6" r:id="rId3"/>
-    <sheet name="Health" sheetId="3" r:id="rId4"/>
-    <sheet name="Chemistry-Compound" sheetId="5" r:id="rId5"/>
-    <sheet name="Music" sheetId="8" r:id="rId6"/>
+    <sheet name="Arts" sheetId="8" r:id="rId2"/>
+    <sheet name="Geography" sheetId="12" r:id="rId3"/>
+    <sheet name="Economy-Market" sheetId="6" r:id="rId4"/>
+    <sheet name="Health" sheetId="3" r:id="rId5"/>
+    <sheet name="Chemistry-Compound" sheetId="5" r:id="rId6"/>
     <sheet name="Politics-Law" sheetId="7" r:id="rId7"/>
     <sheet name="Nature-phenomenon" sheetId="9" r:id="rId8"/>
     <sheet name="Species" sheetId="13" r:id="rId9"/>
     <sheet name="Animals" sheetId="14" r:id="rId10"/>
     <sheet name="Sports" sheetId="10" r:id="rId11"/>
-    <sheet name="Religion" sheetId="11" r:id="rId12"/>
-    <sheet name="Urban" sheetId="15" r:id="rId13"/>
+    <sheet name="Urban" sheetId="15" r:id="rId12"/>
+    <sheet name="Religion" sheetId="11" r:id="rId13"/>
     <sheet name="Characteristic" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="835">
   <si>
     <t>pronounces</t>
   </si>
@@ -259,9 +259,6 @@
     <t>/prɪnt/</t>
   </si>
   <si>
-    <t>(v) phình ra | EXAMPLE : Her bags were bulging with shopping.</t>
-  </si>
-  <si>
     <t>(n.) các loại hạt</t>
   </si>
   <si>
@@ -493,9 +490,6 @@
     <t>/paɪl/</t>
   </si>
   <si>
-    <t>cọc, chồng, đống, pin; đóng cọc, chất chồng</t>
-  </si>
-  <si>
     <t>withdrawing</t>
   </si>
   <si>
@@ -1073,9 +1067,6 @@
   </si>
   <si>
     <t>(n.) activities; hobbies; interests, the act of looking for or trying to get something</t>
-  </si>
-  <si>
-    <t>(v.) to do something or try to achieve something over a period of time,  pursue a goal  = chase</t>
   </si>
   <si>
     <t>showcase</t>
@@ -1295,9 +1286,6 @@
     <t>/swɜːrl/</t>
   </si>
   <si>
-    <t>(v.) cuộn, xoáy, cuốn đi | Exam: The water swirled down the drain. A long skirt swirled around her ankles.</t>
-  </si>
-  <si>
     <t>drain</t>
   </si>
   <si>
@@ -1346,9 +1334,6 @@
     <t>(v.) cẩn thận, coi chừng</t>
   </si>
   <si>
-    <t>(v.) to appear or develop quickly and/or suddenly |Example : Play areas for children are springing up all over the place.</t>
-  </si>
-  <si>
     <t>(v.) (n.) in, xuất bản; sự in ra, (a) 1 ban in</t>
   </si>
   <si>
@@ -1472,18 +1457,12 @@
     <t>/ˈmɔɪstʃər/</t>
   </si>
   <si>
-    <t>(n.)  hơi ẩm | Exam:These plants need rich soil which retains moisture.</t>
-  </si>
-  <si>
     <t>moist</t>
   </si>
   <si>
     <t>/mɔɪst/</t>
   </si>
   <si>
-    <t>(adj.) ẩm ướt| Exam: Keep the soil in the pot moist, but not too wet.</t>
-  </si>
-  <si>
     <t>whirl</t>
   </si>
   <si>
@@ -2142,6 +2121,438 @@
   </si>
   <si>
     <t>(v.) điêu khắc = carve</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>/ˈsʌbɜːrb/</t>
+  </si>
+  <si>
+    <t>(n.) an area where people live that is outside the centre of a city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suburban </t>
+  </si>
+  <si>
+    <t>(adj.)  [usually before noun] in or connected with a suburb. Exam: life in suburban London |(adj.) boring and ordinary  vd: a suburban lifestyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suburbanite </t>
+  </si>
+  <si>
+    <t>/səˈbɜːrbənaɪt/</t>
+  </si>
+  <si>
+    <t>/səˈbɜːrbən/</t>
+  </si>
+  <si>
+    <t>(s.) a person who lives in the suburbs of a city</t>
+  </si>
+  <si>
+    <t>outskirts</t>
+  </si>
+  <si>
+    <t>/ˈaʊtskɜːrts/</t>
+  </si>
+  <si>
+    <t>(n.) ​the parts of a town or city that are furthest from the centre : Exam-  They live on the outskirts of Milan.</t>
+  </si>
+  <si>
+    <t>interior</t>
+  </si>
+  <si>
+    <t>/ɪnˈtɪriər/</t>
+  </si>
+  <si>
+    <t>(n.)  the inside part of something . OPPOSITE exterior . Example - the interior of a building/a car</t>
+  </si>
+  <si>
+    <t>spur</t>
+  </si>
+  <si>
+    <t>/spɜːr/</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>/ˌtrænspərˈteɪʃn/</t>
+  </si>
+  <si>
+    <t>(n.)  a system for carrying people or goods from one place to another using vehicles, roads, etc. : Exam - air/rail/bus transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cart </t>
+  </si>
+  <si>
+    <t>/kɑːrt/</t>
+  </si>
+  <si>
+    <t>(n.) xe đẩy</t>
+  </si>
+  <si>
+    <t>waterway</t>
+  </si>
+  <si>
+    <t>(n.) a river, canal, etc. along which boats can travel</t>
+  </si>
+  <si>
+    <t>/ˈwɔːtərweɪ/</t>
+  </si>
+  <si>
+    <t>railhead</t>
+  </si>
+  <si>
+    <t>/ˈreɪlhed/</t>
+  </si>
+  <si>
+    <t>(n.) ​the point at which a railway ends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prospect </t>
+  </si>
+  <si>
+    <t>/ˈprɑːspekt/</t>
+  </si>
+  <si>
+    <t>(n.) tiềm năng, vien canh, sự trông mong  | (v.)  to search an area for gold, minerals, oil, etc. | Nym: likelihood, hope, expectation, anticipation |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abut </t>
+  </si>
+  <si>
+    <t>/əˈbʌt/</t>
+  </si>
+  <si>
+    <t>(v.)  to be next to something or to have one side touching the side of something, tiep giap</t>
+  </si>
+  <si>
+    <t>follow suit</t>
+  </si>
+  <si>
+    <t>labor-intensive</t>
+  </si>
+  <si>
+    <t>/ˌleɪbər ɪnˈtensɪv/</t>
+  </si>
+  <si>
+    <t>(adj.) (of work) needing a lot of people to do it</t>
+  </si>
+  <si>
+    <t>fare</t>
+  </si>
+  <si>
+    <t>/feə(r)/</t>
+  </si>
+  <si>
+    <t>(n.) the money that you pay to travel by bus, plane, taxi, etc. | Nym: price, cost, charge, fee, payment, toll</t>
+  </si>
+  <si>
+    <t>tract house</t>
+  </si>
+  <si>
+    <t>/ˈtrækt haʊs/</t>
+  </si>
+  <si>
+    <t>(n.) a modern house built on an area of land where a lot of other similar houses have also been built</t>
+  </si>
+  <si>
+    <t>eager</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>/ɪnˈɡeɪdʒ/</t>
+  </si>
+  <si>
+    <t>(v.) to succeed in attracting and keeping somebody’s attention and interest, or thuê, đính hôn,  ước hẹn</t>
+  </si>
+  <si>
+    <t>/ˈiːɡər/</t>
+  </si>
+  <si>
+    <t>(adj.)  very interested and excited by something that is going to happen or about something that you want to do; showing this</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>facilitate</t>
+  </si>
+  <si>
+    <t>/fə'siliteit/</t>
+  </si>
+  <si>
+    <t>(v.) make be convenient</t>
+  </si>
+  <si>
+    <t>/fə'siləti/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(n.) những tiện ích hoặc điều kiện thuận lợi (số nhiều), </t>
+  </si>
+  <si>
+    <t>winding streets</t>
+  </si>
+  <si>
+    <t>(n.) những con phố quanh co (số nhiều)</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>/ơ'fo:dơbl/</t>
+  </si>
+  <si>
+    <t>(adj.) phải chăng, vừa phải (giá cả,…)</t>
+  </si>
+  <si>
+    <t>(v.) tin tưởng làm theo một ai đó, hành động nào đó</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>(n.) khu phố buôn bán kinh doanh | (adj.) khu buôn bán kinh doanh</t>
+  </si>
+  <si>
+    <t>renaissance</t>
+  </si>
+  <si>
+    <t>(n.) Thời kỳ phục hưng</t>
+  </si>
+  <si>
+    <t>/ri'neisns/</t>
+  </si>
+  <si>
+    <t>poet</t>
+  </si>
+  <si>
+    <t>(s.) Thi sĩ, nhà thơ</t>
+  </si>
+  <si>
+    <t>poem</t>
+  </si>
+  <si>
+    <t>/'pəuim/</t>
+  </si>
+  <si>
+    <t>(n.) bài thơi</t>
+  </si>
+  <si>
+    <t>laureate</t>
+  </si>
+  <si>
+    <t>/'pəuit/ or /ˈpəʊət/</t>
+  </si>
+  <si>
+    <t>backdrop</t>
+  </si>
+  <si>
+    <t>metropolis</t>
+  </si>
+  <si>
+    <t>(n.) thủ đô, thủ phủ 1 vùng</t>
+  </si>
+  <si>
+    <t>/ˈlɔːriət/</t>
+  </si>
+  <si>
+    <t>(n.) a person who has been given an official honour or prize for something important they have achieved : Exam - a Nobel __ or Poet ___</t>
+  </si>
+  <si>
+    <t>/məˈtrɑːpəlɪs/</t>
+  </si>
+  <si>
+    <t>/ˌdaʊnˈtaʊn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swing </t>
+  </si>
+  <si>
+    <t>/swɪŋ/</t>
+  </si>
+  <si>
+    <t>(n.) movement | of opinion/mood (a change from one opinion or situation to another good-&gt;bad) | (v.) lung lay, xoay quanh</t>
+  </si>
+  <si>
+    <t>intellectual</t>
+  </si>
+  <si>
+    <t>aspriring</t>
+  </si>
+  <si>
+    <t>/ˌɪntəˈlektʃuəl/</t>
+  </si>
+  <si>
+    <t>(adj.) connected with or using a person’s ability to think in a logical way and understand things = mental</t>
+  </si>
+  <si>
+    <t>(s.) a person who is well educated and enjoys activities in which they have to think seriously about things</t>
+  </si>
+  <si>
+    <t>aspire</t>
+  </si>
+  <si>
+    <t>(v.) to encourage somebody to do something or to encourage them to try harder to achieve something or make something happen faster or sooner : Exam -  Her difficult childhood __ her on to succeed.</t>
+  </si>
+  <si>
+    <t>(v.) to appear or develop quickly and/or suddenly |Example : Play areas for children are __ __ all over the place.</t>
+  </si>
+  <si>
+    <t>(v.) ​to have a strong desire to achieve or to become something - Exam:  She __ to a scientific career.</t>
+  </si>
+  <si>
+    <t>/əˈspaɪər/</t>
+  </si>
+  <si>
+    <t>/əˈspaɪərɪŋ/</t>
+  </si>
+  <si>
+    <t>(adj.) ​wanting to start the career or activity that is mentioned, wanting to be successful in life</t>
+  </si>
+  <si>
+    <t>/ɪˈsteɪt</t>
+  </si>
+  <si>
+    <t>esate</t>
+  </si>
+  <si>
+    <t>(n.) an area of land with a lot of houses or factories of the same type on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settlement </t>
+  </si>
+  <si>
+    <t>/ˈsetlmənt/</t>
+  </si>
+  <si>
+    <t>(n.) an official agreement that ends an argument between two people or groups| chổ ở hợp pháp,  sự chiếm làm thuộc địa, hiệp ước 2 nước…</t>
+  </si>
+  <si>
+    <t>migrate</t>
+  </si>
+  <si>
+    <t>/ˈmaɪɡreɪt/</t>
+  </si>
+  <si>
+    <t>(v.) ) to move from one part of the world to another according to the season (birds) or to move from one town, country, etc. to go and live and/or work in another</t>
+  </si>
+  <si>
+    <t>mitigate</t>
+  </si>
+  <si>
+    <t>/ˈmɪtɪɡeɪt/</t>
+  </si>
+  <si>
+    <t>(v.) to make something less harmful, serious, etc. = alleviate</t>
+  </si>
+  <si>
+    <t>musician</t>
+  </si>
+  <si>
+    <t>/mjuˈzɪʃn/</t>
+  </si>
+  <si>
+    <t>(s.) a person who plays a musical instrument or writes music, especially as a job</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>/ˌɑːntrəprəˈnɜːr/</t>
+  </si>
+  <si>
+    <t>(s.) a person who makes money by starting or running businesses, especially when this involves taking financial risks</t>
+  </si>
+  <si>
+    <t>entrepreneurship</t>
+  </si>
+  <si>
+    <t>/ˌɑːntrəprəˈnɜːrʃɪp/</t>
+  </si>
+  <si>
+    <t>(n.) the activity of making money by starting or running businesses, especially when this involves taking financial risks; the ability to do this / khởi nghiệp</t>
+  </si>
+  <si>
+    <t>bohemian</t>
+  </si>
+  <si>
+    <t>(s.) a person, often somebody who is involved with the arts, who lives in a very informal way without following accepted rules of behaviour</t>
+  </si>
+  <si>
+    <t>/bəʊˈhiːmiən/</t>
+  </si>
+  <si>
+    <t>pulse</t>
+  </si>
+  <si>
+    <t>/pʌls/</t>
+  </si>
+  <si>
+    <t>(n.)  the regular beat of the heart as it sends blood around the body, sự rung, đập, nhịp, mạch</t>
+  </si>
+  <si>
+    <t>cabaret</t>
+  </si>
+  <si>
+    <t>/ˌkæbəˈreɪ/</t>
+  </si>
+  <si>
+    <t>tarven</t>
+  </si>
+  <si>
+    <t>(n.) entertainment with singing and dancing that is performed in restaurants or clubs in the evenings, tạp kỹ ~~ pub</t>
+  </si>
+  <si>
+    <t>/ˈtævərn/</t>
+  </si>
+  <si>
+    <t>(n.) quán bia rượu, = ​a pub or an inn</t>
+  </si>
+  <si>
+    <t>prolific</t>
+  </si>
+  <si>
+    <t>/prəˈlifik/</t>
+  </si>
+  <si>
+    <t>(adj.) phong phú = productive</t>
+  </si>
+  <si>
+    <t>autobiography</t>
+  </si>
+  <si>
+    <t>/ˌɔːtəbaɪˈɑːɡrəfi/</t>
+  </si>
+  <si>
+    <t>(n) the story of a person’s life, written by that person; this type of writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anthology </t>
+  </si>
+  <si>
+    <t>/ænˈθɑːlədʒi/</t>
+  </si>
+  <si>
+    <t>(n.) a collection of poems, stories, etc. that have been written by different people and published together in a book</t>
+  </si>
+  <si>
+    <t>(v.) to do something or try to achieve something over a period of time,  ___ a goal  = chase a goal</t>
+  </si>
+  <si>
+    <t>(v) phình ra | EXAMPLE : Her bags were __(v-ing)__ with shopping.</t>
+  </si>
+  <si>
+    <t>(v.) cuộn, xoáy, cuốn đi | Exam: The water ____ down the drain. A long skirt swirled around her ankles.</t>
+  </si>
+  <si>
+    <t>(n.)  hơi ẩm | Exam:These plants need rich soil which retains __.</t>
+  </si>
+  <si>
+    <t>(adj.) ẩm ướt| Exam: Keep the soil in the pot __, but not too wet.</t>
   </si>
 </sst>
 </file>
@@ -2518,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DB9808-0C27-4DDE-9B79-DC008CD7D6E9}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2582,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>60</v>
@@ -2664,125 +3075,174 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
-        <v>432</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C20" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B21" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C21" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B22" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C22" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C23" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B24" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C24" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B25" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C25" t="s">
-        <v>603</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>706</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C26" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>736</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C27" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>737</v>
+      </c>
+      <c r="B28" t="s">
+        <v>738</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>781</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C30" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -2818,46 +3278,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B5" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -2893,103 +3353,103 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" t="s">
         <v>322</v>
-      </c>
-      <c r="B3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" t="s">
         <v>325</v>
-      </c>
-      <c r="B4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
         <v>332</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2998,6 +3458,307 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495DA0CA-139B-446C-AC96-0962609274D4}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="152" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>726</v>
+      </c>
+      <c r="C12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>727</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C13" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>730</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C14" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>733</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C15" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>742</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C16" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>743</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C17" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>748</v>
+      </c>
+      <c r="C18" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>754</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>767</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C20" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>789</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C21" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>791</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C22" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>794</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C23" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>797</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C24" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C25" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>817</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C26" t="s">
+        <v>820</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5029D4DC-3DE8-4552-BA6E-F491BD8828D6}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3025,66 +3786,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495DA0CA-139B-446C-AC96-0962609274D4}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="152" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3094,10 +3824,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3120,13 +3850,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>439</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C4" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -3136,11 +3888,218 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F7CA-2CED-4B85-AB80-75C1942176CB}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="151.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>761</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C10" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>773</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>776</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>800</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>821</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C15" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>824</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C16" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>827</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C17" t="s">
+        <v>829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661B8C3-0E49-4D30-917C-03A47040CE92}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3163,348 +4122,359 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B6" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C8" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C9" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C10" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C11" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C12" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C13" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C14" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C15" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C16" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C17" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C18" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C19" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C20" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C21" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C22" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C23" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C24" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C25" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C26" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C27" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C28" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C29" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C30" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C31" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C32" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C33" t="s">
-        <v>697</v>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>714</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C34" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -3512,12 +4482,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0A82E7-5AE2-4B25-9645-D3DB487B6DC3}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3534,276 +4504,320 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>151</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" t="s">
         <v>124</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
         <v>128</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" t="s">
         <v>131</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
         <v>133</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
         <v>135</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
         <v>138</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>139</v>
-      </c>
-      <c r="C17" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
         <v>143</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>144</v>
-      </c>
-      <c r="C19" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
         <v>146</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>147</v>
-      </c>
-      <c r="C20" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
         <v>149</v>
       </c>
-      <c r="B21" t="s">
-        <v>150</v>
-      </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
         <v>152</v>
-      </c>
-      <c r="B22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
         <v>156</v>
-      </c>
-      <c r="B23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="C24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C27" t="s">
-        <v>625</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>750</v>
+      </c>
+      <c r="B28" t="s">
+        <v>751</v>
+      </c>
+      <c r="C28" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>806</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C29" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>803</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C30" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C31" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -3811,12 +4825,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE2C512-0C85-4DBA-8540-BE2BFA5C9A56}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3867,7 +4881,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3897,7 +4911,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3954,7 +4968,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3970,7 +4984,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3998,6 +5012,17 @@
       </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>812</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C19" t="s">
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -4005,7 +5030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4925E11F-439A-41A6-AB9B-3D2BE73FE6D7}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -4033,195 +5058,98 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F7CA-2CED-4B85-AB80-75C1942176CB}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="151.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +5161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B614F6-0F1E-4487-855D-86FE2011D45F}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4257,513 +5185,513 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
         <v>182</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
         <v>185</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
         <v>188</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" t="s">
         <v>196</v>
-      </c>
-      <c r="B9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" t="s">
         <v>203</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" t="s">
         <v>206</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
         <v>212</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
         <v>215</v>
       </c>
-      <c r="B15" t="s">
-        <v>217</v>
-      </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
         <v>218</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
         <v>221</v>
-      </c>
-      <c r="B17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" t="s">
         <v>231</v>
-      </c>
-      <c r="B20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" t="s">
         <v>234</v>
-      </c>
-      <c r="B21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" t="s">
         <v>239</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
         <v>242</v>
-      </c>
-      <c r="B24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C24" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
         <v>245</v>
-      </c>
-      <c r="B25" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" t="s">
         <v>254</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C28" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" t="s">
         <v>257</v>
-      </c>
-      <c r="B29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" t="s">
         <v>260</v>
       </c>
-      <c r="B30" t="s">
-        <v>262</v>
-      </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" t="s">
         <v>263</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C31" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" t="s">
         <v>267</v>
       </c>
-      <c r="B32" t="s">
-        <v>269</v>
-      </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" t="s">
         <v>272</v>
-      </c>
-      <c r="B34" t="s">
-        <v>273</v>
-      </c>
-      <c r="C34" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" t="s">
         <v>275</v>
-      </c>
-      <c r="B35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C35" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" t="s">
         <v>283</v>
-      </c>
-      <c r="B37" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" t="s">
         <v>286</v>
       </c>
-      <c r="B38" t="s">
-        <v>288</v>
-      </c>
       <c r="C38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" t="s">
         <v>289</v>
-      </c>
-      <c r="B39" t="s">
-        <v>290</v>
-      </c>
-      <c r="C39" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" t="s">
         <v>292</v>
-      </c>
-      <c r="B40" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" t="s">
         <v>298</v>
-      </c>
-      <c r="B42" t="s">
-        <v>299</v>
-      </c>
-      <c r="C42" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" t="s">
         <v>301</v>
-      </c>
-      <c r="B43" t="s">
-        <v>302</v>
-      </c>
-      <c r="C43" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" t="s">
         <v>304</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C44" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C45" t="s">
         <v>307</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" t="s">
         <v>310</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C46" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" t="s">
         <v>314</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +5704,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4799,389 +5727,389 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>415</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C19" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C23" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C24" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B26" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C27" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C28" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C30" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B31" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C31" t="s">
-        <v>474</v>
+        <v>833</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B32" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C32" t="s">
-        <v>477</v>
+        <v>834</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C34" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B35" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C35" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C36" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C37" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -5217,301 +6145,301 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C5" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C6" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C8" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C9" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B11" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C11" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C12" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C14" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C15" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C16" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B17" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C17" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B18" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C18" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C19" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C20" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C21" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B22" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C22" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B23" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C23" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C24" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C25" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B26" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C26" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B27" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C27" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B28" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C28" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B29" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C29" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
